--- a/Course Progression BSc.xlsx
+++ b/Course Progression BSc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utting/usc_onedrive/OneDrive - University of the Sunshine Coast/workspace_jupyter/research/cir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368A1919-59FD-9D43-B84B-BF2C47D2FEA6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="114_{37965D1F-74DC-7A42-B2EA-354105D74BF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B6065259-A480-6048-A99E-C601602E3E44}"/>
   <bookViews>
-    <workbookView xWindow="-19380" yWindow="-3800" windowWidth="19160" windowHeight="17800" xr2:uid="{83DE8EA1-40E6-AE42-9FFC-824F75BAD709}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="19160" windowHeight="14100" xr2:uid="{83DE8EA1-40E6-AE42-9FFC-824F75BAD709}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="172">
   <si>
     <t>Progression value</t>
   </si>
@@ -78,54 +78,6 @@
     <t>Chemistry</t>
   </si>
   <si>
-    <t>SCI202</t>
-  </si>
-  <si>
-    <t>Advanced Research Methods</t>
-  </si>
-  <si>
-    <t>ANM203</t>
-  </si>
-  <si>
-    <t>Stats with  Teeth</t>
-  </si>
-  <si>
-    <t>ENS330</t>
-  </si>
-  <si>
-    <t>K'gari-Fraser Island Field Studies</t>
-  </si>
-  <si>
-    <t>ENS333</t>
-  </si>
-  <si>
-    <t>Special Field Studies Topic</t>
-  </si>
-  <si>
-    <t>SUS310</t>
-  </si>
-  <si>
-    <t>Sustainability Project</t>
-  </si>
-  <si>
-    <t>SRP301</t>
-  </si>
-  <si>
-    <t>Special Research Project</t>
-  </si>
-  <si>
-    <t>WPL310</t>
-  </si>
-  <si>
-    <t>Workplace Learning I</t>
-  </si>
-  <si>
-    <t>SCI302</t>
-  </si>
-  <si>
-    <t>Analytical Sciences</t>
-  </si>
-  <si>
     <t>100-level elective</t>
   </si>
   <si>
@@ -231,9 +183,6 @@
     <t xml:space="preserve">Applied Microbiology and Biotechnology </t>
   </si>
   <si>
-    <t>Chemisty major</t>
-  </si>
-  <si>
     <t>CHM202</t>
   </si>
   <si>
@@ -565,6 +514,39 @@
   </si>
   <si>
     <t>Elective303</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>Choose one of: ENS330, ENS333, SRP301, WPL310, SCI302</t>
+  </si>
+  <si>
+    <t>You have chosen: ENS221 (Plant Diversity and Ecology), not ENS222</t>
+  </si>
+  <si>
+    <t>You have chosen: ENS222 (Terrestrial Vertebrate Diversity and Ecology), not ENS221</t>
+  </si>
+  <si>
+    <t>MBT301/361</t>
+  </si>
+  <si>
+    <t>Choose one of: MBT301, MBT361</t>
+  </si>
+  <si>
+    <t>Choose one of: SCI202 (Adv. Research Methods), ANM203 (Statistics with Teeth)</t>
+  </si>
+  <si>
+    <t>Chemistry major</t>
+  </si>
+  <si>
+    <t>SCI202/ANM203</t>
+  </si>
+  <si>
+    <t>ENS221/222</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -934,21 +916,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5311EF9-359D-4B42-845D-7935F0BC43CC}">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -959,10 +943,13 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B2" s="3">
         <v>1.0009999999999999</v>
@@ -974,7 +961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="3">
         <v>2.0009999999999999</v>
       </c>
@@ -985,7 +972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>1.1299999999999999</v>
       </c>
@@ -996,7 +983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>1.1299999999999999</v>
       </c>
@@ -1007,7 +994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>1.1299999999999999</v>
       </c>
@@ -1018,7 +1005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>2.13</v>
       </c>
@@ -1029,7 +1016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>2.13</v>
       </c>
@@ -1040,7 +1027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>1.1299999999999999</v>
       </c>
@@ -1051,7 +1038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>2.13</v>
       </c>
@@ -1062,599 +1049,602 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>3.2320000000000002</v>
       </c>
       <c r="C11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
+        <v>6.3719999999999999</v>
+      </c>
+      <c r="C12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
+        <v>1.1819999999999999</v>
+      </c>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="3">
-        <v>3.23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="3">
-        <v>6.3920000000000003</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
-        <v>6.3920000000000003</v>
+        <v>1.1819999999999999</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
-        <v>6.3929999999999998</v>
+        <v>2.1819999999999999</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
-        <v>6.3929999999999998</v>
+        <v>2.1819999999999999</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
-        <v>6.3920000000000003</v>
+        <v>3.282</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
-        <v>6.3920000000000003</v>
+        <v>3.282</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
-        <v>1.1819999999999999</v>
+        <v>4.282</v>
       </c>
       <c r="C19" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
-        <v>1.1819999999999999</v>
+        <v>4.282</v>
       </c>
       <c r="C20" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
-        <v>2.1819999999999999</v>
+        <v>5.3819999999999997</v>
       </c>
       <c r="C21" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
-        <v>2.1819999999999999</v>
+        <v>5.3819999999999997</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
-        <v>3.282</v>
+        <v>6.3819999999999997</v>
       </c>
       <c r="C23" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
-        <v>3.282</v>
+        <v>6.3819999999999997</v>
       </c>
       <c r="C24" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
       <c r="B25" s="3">
-        <v>4.282</v>
+        <v>2.1320000000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
-        <v>4.282</v>
+        <v>4.2320000000000002</v>
       </c>
       <c r="C26" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
-        <v>5.3819999999999997</v>
+        <v>3.23</v>
       </c>
       <c r="C27" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
-        <v>5.3819999999999997</v>
+        <v>6.3319999999999999</v>
       </c>
       <c r="C28" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
-        <v>6.3819999999999997</v>
+        <v>5.3319999999999999</v>
       </c>
       <c r="C29" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
-        <v>6.3819999999999997</v>
+        <v>4.2320000000000002</v>
       </c>
       <c r="C30" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
       <c r="B31" s="3">
-        <v>2.1320000000000001</v>
+        <v>5.3319999999999999</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
-        <v>4.2320000000000002</v>
+        <v>3.2320000000000002</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
-        <v>3.23</v>
+        <v>4.2320000000000002</v>
       </c>
       <c r="C33" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="3">
+        <v>3.2320000000000002</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
         <v>39</v>
-      </c>
-      <c r="D33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="3">
-        <v>6.3319999999999999</v>
-      </c>
-      <c r="C34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
-        <v>5.3319999999999999</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
-        <v>4.2320000000000002</v>
+        <v>3.23</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
-        <v>5.3319999999999999</v>
+        <v>4.2320000000000002</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
-        <v>3.2320000000000002</v>
+        <v>5.3319999999999999</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" s="3">
-        <v>4.2320000000000002</v>
+        <v>6.3319999999999999</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>53</v>
-      </c>
       <c r="B40" s="3">
-        <v>3.2320000000000002</v>
+        <v>6.3319999999999999</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" s="3">
-        <v>4.2300000000000004</v>
+        <v>5.3319999999999999</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>168</v>
+      </c>
       <c r="B42" s="3">
         <v>3.23</v>
       </c>
       <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
         <v>39</v>
-      </c>
-      <c r="D42" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B43" s="3">
-        <v>4.2320000000000002</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B44" s="3">
-        <v>5.3319999999999999</v>
+        <v>4.2320000000000002</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B45" s="3">
-        <v>6.3319999999999999</v>
+        <v>5.3319999999999999</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" s="3">
-        <v>6.3319999999999999</v>
+        <v>5.3319999999999999</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B47" s="3">
-        <v>5.3319999999999999</v>
+        <v>6.3319999999999999</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B48" s="3">
-        <v>5.3319999999999999</v>
+        <v>6.3319999999999999</v>
       </c>
       <c r="C48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="3">
+        <v>4.3319999999999999</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>64</v>
       </c>
-      <c r="D48" t="s">
+      <c r="B50" s="3">
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="C50" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="D50" t="s">
         <v>66</v>
-      </c>
-      <c r="B49" s="3">
-        <v>3.23</v>
-      </c>
-      <c r="C49" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="3">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="C50" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" s="3">
-        <v>4.2320000000000002</v>
+        <v>3.2320000000000002</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D51" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" s="3">
-        <v>5.3319999999999999</v>
+        <v>3.2320000000000002</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B53" s="3">
-        <v>5.3319999999999999</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="C53" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="D53" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" s="3">
-        <v>6.3319999999999999</v>
+        <v>3.2320000000000002</v>
       </c>
       <c r="C54" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D54" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B55" s="3">
-        <v>6.3319999999999999</v>
+        <v>5.3319999999999999</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D55" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" s="3">
-        <v>4.3319999999999999</v>
+        <v>6.3319999999999999</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D56" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>81</v>
-      </c>
       <c r="B57" s="3">
-        <v>2.1320000000000001</v>
+        <v>6.3319999999999999</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
       <c r="B58" s="3">
-        <v>3.2320000000000002</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D58" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B59" s="3">
-        <v>3.2320000000000002</v>
+        <v>2.13</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D59" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B60" s="3">
-        <v>4.2300000000000004</v>
+        <v>3.2320000000000002</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B61" s="3">
-        <v>3.2320000000000002</v>
+        <v>4.2320000000000002</v>
       </c>
       <c r="C61" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B62" s="3">
-        <v>5.3319999999999999</v>
+        <v>4.2320000000000002</v>
       </c>
       <c r="C62" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D62" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B63" s="3">
-        <v>6.3319999999999999</v>
+        <v>5.3319999999999999</v>
       </c>
       <c r="C63" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D63" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1662,46 +1652,46 @@
         <v>6.3319999999999999</v>
       </c>
       <c r="C64" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="D64" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="B65" s="3">
+        <v>5.3319999999999999</v>
+      </c>
+      <c r="C65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="3">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="C65" t="s">
-        <v>93</v>
-      </c>
-      <c r="D65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B66" s="3">
-        <v>2.13</v>
+        <v>2.1320000000000001</v>
       </c>
       <c r="C66" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B67" s="3">
-        <v>3.2320000000000002</v>
+        <v>3.23</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1709,126 +1699,129 @@
         <v>4.2320000000000002</v>
       </c>
       <c r="C68" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B69" s="3">
-        <v>4.2320000000000002</v>
+        <v>5.3319999999999999</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>93</v>
+      </c>
       <c r="B70" s="3">
         <v>5.3319999999999999</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D70" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B71" s="3">
-        <v>6.3319999999999999</v>
+        <v>3.23</v>
       </c>
       <c r="C71" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B72" s="3">
-        <v>5.3319999999999999</v>
+        <v>4.2320000000000002</v>
       </c>
       <c r="C72" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="D72" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>109</v>
-      </c>
       <c r="B73" s="3">
-        <v>2.1320000000000001</v>
+        <v>4.2320000000000002</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="D73" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>98</v>
+      </c>
       <c r="B74" s="3">
-        <v>3.23</v>
+        <v>6.3319999999999999</v>
       </c>
       <c r="C74" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="D74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B75" s="3">
-        <v>4.2320000000000002</v>
+        <v>5.3319999999999999</v>
       </c>
       <c r="C75" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D75" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B76" s="3">
-        <v>5.3319999999999999</v>
+        <v>4.2320000000000002</v>
       </c>
       <c r="C76" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>110</v>
-      </c>
       <c r="B77" s="3">
-        <v>5.3319999999999999</v>
+        <v>3.2320000000000002</v>
       </c>
       <c r="C77" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D77" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>99</v>
+      </c>
       <c r="B78" s="3">
-        <v>3.23</v>
+        <v>4.2320000000000002</v>
       </c>
       <c r="C78" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D78" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -1836,515 +1829,432 @@
         <v>4.2320000000000002</v>
       </c>
       <c r="C79" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D79" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B80" s="3">
-        <v>4.2320000000000002</v>
+        <v>5.3319999999999999</v>
       </c>
       <c r="C80" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="D80" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>115</v>
-      </c>
       <c r="B81" s="3">
         <v>6.3319999999999999</v>
       </c>
       <c r="C81" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="D81" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>100</v>
+      </c>
       <c r="B82" s="3">
-        <v>5.3319999999999999</v>
+        <v>6.3319999999999999</v>
       </c>
       <c r="C82" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="D82" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B83" s="3">
-        <v>4.2320000000000002</v>
+        <v>6.3319999999999999</v>
       </c>
       <c r="C83" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D83" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B84" s="3">
+        <v>6.3319999999999999</v>
+      </c>
+      <c r="C84" t="s">
+        <v>101</v>
+      </c>
+      <c r="D84" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="3">
+        <v>5.3319999999999999</v>
+      </c>
+      <c r="C85" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" s="3">
         <v>3.2320000000000002</v>
       </c>
-      <c r="C84" t="s">
-        <v>113</v>
-      </c>
-      <c r="D84" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>116</v>
-      </c>
-      <c r="B85" s="3">
-        <v>4.2320000000000002</v>
-      </c>
-      <c r="C85" t="s">
-        <v>67</v>
-      </c>
-      <c r="D85" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B86" s="3">
-        <v>4.2320000000000002</v>
-      </c>
       <c r="C86" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="D86" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B87" s="3">
-        <v>5.3319999999999999</v>
+        <v>6.3319999999999999</v>
       </c>
       <c r="C87" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D87" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B88" s="3">
-        <v>6.3319999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="C88" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="D88" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>117</v>
-      </c>
       <c r="B89" s="3">
-        <v>6.3319999999999999</v>
+        <v>5.33</v>
       </c>
       <c r="C89" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="D89" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>108</v>
+      </c>
       <c r="B90" s="3">
-        <v>6.3319999999999999</v>
+        <v>3.2320000000000002</v>
       </c>
       <c r="C90" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D90" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B91" s="3">
-        <v>6.3319999999999999</v>
+        <v>4.2320000000000002</v>
       </c>
       <c r="C91" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D91" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B92" s="3">
-        <v>5.3319999999999999</v>
+        <v>6.3319999999999999</v>
       </c>
       <c r="C92" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="D92" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>120</v>
-      </c>
       <c r="B93" s="3">
-        <v>3.2320000000000002</v>
+        <v>6.3319999999999999</v>
       </c>
       <c r="C93" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="D93" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>113</v>
+      </c>
       <c r="B94" s="3">
-        <v>6.3319999999999999</v>
+        <v>3.23</v>
       </c>
       <c r="C94" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D94" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B95" s="3">
-        <v>4.25</v>
+        <v>5.3319999999999999</v>
       </c>
       <c r="C95" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D95" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B96" s="3">
-        <v>5.33</v>
+        <v>6.3319999999999999</v>
       </c>
       <c r="C96" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D96" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>125</v>
-      </c>
       <c r="B97" s="3">
-        <v>3.2320000000000002</v>
+        <v>5.3319999999999999</v>
       </c>
       <c r="C97" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D97" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>119</v>
+      </c>
       <c r="B98" s="3">
-        <v>4.2320000000000002</v>
+        <v>1.131</v>
       </c>
       <c r="C98" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="D98" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B99" s="3">
-        <v>6.3319999999999999</v>
+        <v>4.2309999999999999</v>
       </c>
       <c r="C99" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D99" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B100" s="3">
+        <v>3.2309999999999999</v>
+      </c>
+      <c r="C100" t="s">
+        <v>124</v>
+      </c>
+      <c r="D100" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B101" s="3">
         <v>6.3319999999999999</v>
       </c>
-      <c r="C100" t="s">
-        <v>99</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="C101" t="s">
+        <v>126</v>
+      </c>
+      <c r="D101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102" s="3">
+        <v>1.1319999999999999</v>
+      </c>
+      <c r="C102" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="D102" t="s">
         <v>130</v>
-      </c>
-      <c r="B101" s="3">
-        <v>3.23</v>
-      </c>
-      <c r="C101" t="s">
-        <v>39</v>
-      </c>
-      <c r="D101" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B102" s="3">
-        <v>5.3319999999999999</v>
-      </c>
-      <c r="C102" t="s">
-        <v>47</v>
-      </c>
-      <c r="D102" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B103" s="3">
-        <v>6.3319999999999999</v>
+        <v>2.1320000000000001</v>
       </c>
       <c r="C103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D103" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B104" s="3">
-        <v>5.3319999999999999</v>
+        <v>4.2320000000000002</v>
       </c>
       <c r="C104" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="D104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B105" s="3">
+        <v>3.2320000000000002</v>
+      </c>
+      <c r="C105" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="D105" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="3">
-        <v>1.131</v>
-      </c>
-      <c r="C105" t="s">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>137</v>
       </c>
-      <c r="D105" t="s">
+      <c r="B106" s="3">
+        <v>3.2320000000000002</v>
+      </c>
+      <c r="C106" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B106" s="3">
-        <v>4.2309999999999999</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>139</v>
-      </c>
-      <c r="D106" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B107" s="3">
-        <v>3.2309999999999999</v>
+        <v>4.2320000000000002</v>
       </c>
       <c r="C107" t="s">
+        <v>140</v>
+      </c>
+      <c r="D107" t="s">
         <v>141</v>
-      </c>
-      <c r="D107" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B108" s="3">
-        <v>6.3319999999999999</v>
+        <v>5.2320000000000002</v>
       </c>
       <c r="C108" t="s">
+        <v>142</v>
+      </c>
+      <c r="D108" t="s">
         <v>143</v>
       </c>
-      <c r="D108" t="s">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B109" s="3">
+        <v>6.2320000000000002</v>
+      </c>
+      <c r="C109" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="D109" t="s">
         <v>145</v>
       </c>
-      <c r="B109" s="3">
-        <v>1.1319999999999999</v>
-      </c>
-      <c r="C109" t="s">
-        <v>146</v>
-      </c>
-      <c r="D109" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B110" s="3">
-        <v>2.1320000000000001</v>
-      </c>
-      <c r="C110" t="s">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>148</v>
       </c>
-      <c r="D110" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B111" s="3">
-        <v>4.2320000000000002</v>
-      </c>
-      <c r="C111" t="s">
-        <v>150</v>
-      </c>
-      <c r="D111" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B112" s="3">
-        <v>3.2320000000000002</v>
-      </c>
-      <c r="C112" t="s">
-        <v>152</v>
-      </c>
-      <c r="D112" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>154</v>
-      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="3">
-        <v>3.2320000000000002</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="C113" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="D113" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B114" s="3">
-        <v>4.2320000000000002</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="C114" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="D114" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B115" s="3">
-        <v>5.2320000000000002</v>
-      </c>
-      <c r="C115" t="s">
-        <v>159</v>
-      </c>
-      <c r="D115" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B116" s="3">
-        <v>6.2320000000000002</v>
+        <v>3.23</v>
       </c>
       <c r="C116" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="D116" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B118" s="3">
+        <v>3.23</v>
+      </c>
+      <c r="C118" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B119" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C119" t="s">
+        <v>76</v>
+      </c>
+      <c r="D119" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="3">
-        <v>4.2300000000000004</v>
+        <v>2.13</v>
       </c>
       <c r="C120" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="D120" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B121" s="3">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="C121" t="s">
-        <v>45</v>
-      </c>
-      <c r="D121" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B123" s="3">
-        <v>3.23</v>
-      </c>
-      <c r="C123" t="s">
-        <v>39</v>
-      </c>
-      <c r="D123" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B125" s="3">
-        <v>3.23</v>
-      </c>
-      <c r="C125" t="s">
-        <v>49</v>
-      </c>
-      <c r="D125" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B126" s="3">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="C126" t="s">
-        <v>93</v>
-      </c>
-      <c r="D126" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B127" s="3">
-        <v>2.13</v>
-      </c>
-      <c r="C127" t="s">
-        <v>95</v>
-      </c>
-      <c r="D127" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
